--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H2">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.11128991664285</v>
+        <v>4.359970666666666</v>
       </c>
       <c r="N2">
-        <v>4.11128991664285</v>
+        <v>13.079912</v>
       </c>
       <c r="O2">
-        <v>0.09096937977311782</v>
+        <v>0.09519723722949401</v>
       </c>
       <c r="P2">
-        <v>0.09096937977311782</v>
+        <v>0.09519723722949404</v>
       </c>
       <c r="Q2">
-        <v>321.5852694909589</v>
+        <v>386.8293141277778</v>
       </c>
       <c r="R2">
-        <v>321.5852694909589</v>
+        <v>3481.46382715</v>
       </c>
       <c r="S2">
-        <v>0.06815932572346131</v>
+        <v>0.07306445626660157</v>
       </c>
       <c r="T2">
-        <v>0.06815932572346131</v>
+        <v>0.0730644562666016</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H3">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.6178685655842</v>
+        <v>29.648583</v>
       </c>
       <c r="N3">
-        <v>29.6178685655842</v>
+        <v>88.94574899999999</v>
       </c>
       <c r="O3">
-        <v>0.6553464212548197</v>
+        <v>0.6473582978316696</v>
       </c>
       <c r="P3">
-        <v>0.6553464212548197</v>
+        <v>0.6473582978316698</v>
       </c>
       <c r="Q3">
-        <v>2316.710919814855</v>
+        <v>2630.50875879375</v>
       </c>
       <c r="R3">
-        <v>2316.710919814855</v>
+        <v>23674.57882914375</v>
       </c>
       <c r="S3">
-        <v>0.4910220372988811</v>
+        <v>0.4968514152014648</v>
       </c>
       <c r="T3">
-        <v>0.4910220372988811</v>
+        <v>0.4968514152014649</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H4">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I4">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J4">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.4650588126101</v>
+        <v>11.79078666666667</v>
       </c>
       <c r="N4">
-        <v>11.4650588126101</v>
+        <v>35.37236</v>
       </c>
       <c r="O4">
-        <v>0.2536841989720626</v>
+        <v>0.2574444649388364</v>
       </c>
       <c r="P4">
-        <v>0.2536841989720626</v>
+        <v>0.2574444649388364</v>
       </c>
       <c r="Q4">
-        <v>896.7973805636154</v>
+        <v>1046.112982861111</v>
       </c>
       <c r="R4">
-        <v>896.7973805636154</v>
+        <v>9415.01684575</v>
       </c>
       <c r="S4">
-        <v>0.1900743304148788</v>
+        <v>0.1975901864069489</v>
       </c>
       <c r="T4">
-        <v>0.1900743304148788</v>
+        <v>0.1975901864069489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H5">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.11128991664285</v>
+        <v>4.359970666666666</v>
       </c>
       <c r="N5">
-        <v>4.11128991664285</v>
+        <v>13.079912</v>
       </c>
       <c r="O5">
-        <v>0.09096937977311782</v>
+        <v>0.09519723722949401</v>
       </c>
       <c r="P5">
-        <v>0.09096937977311782</v>
+        <v>0.09519723722949404</v>
       </c>
       <c r="Q5">
-        <v>73.12572343343243</v>
+        <v>78.11258046840001</v>
       </c>
       <c r="R5">
-        <v>73.12572343343243</v>
+        <v>703.0132242156001</v>
       </c>
       <c r="S5">
-        <v>0.01549884424169246</v>
+        <v>0.01475393154309806</v>
       </c>
       <c r="T5">
-        <v>0.01549884424169246</v>
+        <v>0.01475393154309807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H6">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J6">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.6178685655842</v>
+        <v>29.648583</v>
       </c>
       <c r="N6">
-        <v>29.6178685655842</v>
+        <v>88.94574899999999</v>
       </c>
       <c r="O6">
-        <v>0.6553464212548197</v>
+        <v>0.6473582978316696</v>
       </c>
       <c r="P6">
-        <v>0.6553464212548197</v>
+        <v>0.6473582978316698</v>
       </c>
       <c r="Q6">
-        <v>526.8001306955285</v>
+        <v>531.1795657405501</v>
       </c>
       <c r="R6">
-        <v>526.8001306955285</v>
+        <v>4780.61609166495</v>
       </c>
       <c r="S6">
-        <v>0.1116541866363316</v>
+        <v>0.1003293823227238</v>
       </c>
       <c r="T6">
-        <v>0.1116541866363316</v>
+        <v>0.1003293823227238</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H7">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J7">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.4650588126101</v>
+        <v>11.79078666666667</v>
       </c>
       <c r="N7">
-        <v>11.4650588126101</v>
+        <v>35.37236</v>
       </c>
       <c r="O7">
-        <v>0.2536841989720626</v>
+        <v>0.2574444649388364</v>
       </c>
       <c r="P7">
-        <v>0.2536841989720626</v>
+        <v>0.2574444649388364</v>
       </c>
       <c r="Q7">
-        <v>203.9240084930733</v>
+        <v>211.241965302</v>
       </c>
       <c r="R7">
-        <v>203.9240084930733</v>
+        <v>1901.177687718</v>
       </c>
       <c r="S7">
-        <v>0.04322126737867899</v>
+        <v>0.03989945635397396</v>
       </c>
       <c r="T7">
-        <v>0.04322126737867899</v>
+        <v>0.03989945635397397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H8">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I8">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J8">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.11128991664285</v>
+        <v>4.359970666666666</v>
       </c>
       <c r="N8">
-        <v>4.11128991664285</v>
+        <v>13.079912</v>
       </c>
       <c r="O8">
-        <v>0.09096937977311782</v>
+        <v>0.09519723722949401</v>
       </c>
       <c r="P8">
-        <v>0.09096937977311782</v>
+        <v>0.09519723722949404</v>
       </c>
       <c r="Q8">
-        <v>34.49531449208211</v>
+        <v>39.06626294043821</v>
       </c>
       <c r="R8">
-        <v>34.49531449208211</v>
+        <v>351.596366463944</v>
       </c>
       <c r="S8">
-        <v>0.007311209807964045</v>
+        <v>0.007378849419794368</v>
       </c>
       <c r="T8">
-        <v>0.007311209807964045</v>
+        <v>0.007378849419794372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H9">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I9">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J9">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.6178685655842</v>
+        <v>29.648583</v>
       </c>
       <c r="N9">
-        <v>29.6178685655842</v>
+        <v>88.94574899999999</v>
       </c>
       <c r="O9">
-        <v>0.6553464212548197</v>
+        <v>0.6473582978316696</v>
       </c>
       <c r="P9">
-        <v>0.6553464212548197</v>
+        <v>0.6473582978316698</v>
       </c>
       <c r="Q9">
-        <v>248.5053867447153</v>
+        <v>265.657599062457</v>
       </c>
       <c r="R9">
-        <v>248.5053867447153</v>
+        <v>2390.918391562113</v>
       </c>
       <c r="S9">
-        <v>0.05267019731960693</v>
+        <v>0.05017750030748108</v>
       </c>
       <c r="T9">
-        <v>0.05267019731960693</v>
+        <v>0.0501775003074811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H10">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I10">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J10">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.4650588126101</v>
+        <v>11.79078666666667</v>
       </c>
       <c r="N10">
-        <v>11.4650588126101</v>
+        <v>35.37236</v>
       </c>
       <c r="O10">
-        <v>0.2536841989720626</v>
+        <v>0.2574444649388364</v>
       </c>
       <c r="P10">
-        <v>0.2536841989720626</v>
+        <v>0.2574444649388364</v>
       </c>
       <c r="Q10">
-        <v>96.19628326628646</v>
+        <v>105.6479521103689</v>
       </c>
       <c r="R10">
-        <v>96.19628326628646</v>
+        <v>950.83156899332</v>
       </c>
       <c r="S10">
-        <v>0.02038860117850487</v>
+        <v>0.01995482217791355</v>
       </c>
       <c r="T10">
-        <v>0.02038860117850487</v>
+        <v>0.01995482217791355</v>
       </c>
     </row>
   </sheetData>
